--- a/INTLINE/data/142/OSE/Oslo Benchmark Index - Daily.xlsx
+++ b/INTLINE/data/142/OSE/Oslo Benchmark Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JCQ2"/>
+  <dimension ref="A1:JDH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34629,15 +34629,100 @@
       </c>
       <c r="JCO1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="JCP1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="JCQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="JCR1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="JCS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="JCT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
+        </is>
+      </c>
+      <c r="JCU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="JCV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-20</t>
+        </is>
+      </c>
+      <c r="JCW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
+      </c>
+      <c r="JCX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
+      </c>
+      <c r="JCY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="JCZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
+        </is>
+      </c>
+      <c r="JDA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-27</t>
+        </is>
+      </c>
+      <c r="JDB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
+      </c>
+      <c r="JDC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-29</t>
+        </is>
+      </c>
+      <c r="JDD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-02</t>
+        </is>
+      </c>
+      <c r="JDE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="JDF1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="JCP1" s="1" t="inlineStr">
+      <c r="JDG1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="JCQ1" s="1" t="inlineStr">
+      <c r="JDH1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -54702,17 +54787,68 @@
       <c r="JCN2" t="n">
         <v>1266</v>
       </c>
-      <c r="JCO2" t="inlineStr">
+      <c r="JCO2" t="n">
+        <v>1259.26</v>
+      </c>
+      <c r="JCP2" t="n">
+        <v>1254.66</v>
+      </c>
+      <c r="JCQ2" t="n">
+        <v>1276.62</v>
+      </c>
+      <c r="JCR2" t="n">
+        <v>1263.63</v>
+      </c>
+      <c r="JCS2" t="n">
+        <v>1265.1</v>
+      </c>
+      <c r="JCT2" t="n">
+        <v>1283.13</v>
+      </c>
+      <c r="JCU2" t="n">
+        <v>1279.07</v>
+      </c>
+      <c r="JCV2" t="n">
+        <v>1280.83</v>
+      </c>
+      <c r="JCW2" t="n">
+        <v>1285.21</v>
+      </c>
+      <c r="JCX2" t="n">
+        <v>1263.88</v>
+      </c>
+      <c r="JCY2" t="n">
+        <v>1226.11</v>
+      </c>
+      <c r="JCZ2" t="n">
+        <v>1226.68</v>
+      </c>
+      <c r="JDA2" t="n">
+        <v>1239.41</v>
+      </c>
+      <c r="JDB2" t="n">
+        <v>1234.47</v>
+      </c>
+      <c r="JDC2" t="n">
+        <v>1239.82</v>
+      </c>
+      <c r="JDD2" t="n">
+        <v>1218.36</v>
+      </c>
+      <c r="JDE2" t="n">
+        <v>1231.9</v>
+      </c>
+      <c r="JDF2" t="inlineStr">
         <is>
           <t>OSEBX</t>
         </is>
       </c>
-      <c r="JCP2" t="inlineStr">
+      <c r="JDG2" t="inlineStr">
         <is>
           <t>Oslo Benchmark Index, Close Price</t>
         </is>
       </c>
-      <c r="JCQ2" t="inlineStr">
+      <c r="JDH2" t="inlineStr">
         <is>
           <t>Index: 1995.12.29=100</t>
         </is>
